--- a/Excel/FashionConfig.xlsx
+++ b/Excel/FashionConfig.xlsx
@@ -8,7 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
-    <sheet name="定制" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -81,40 +80,8 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>admin</author>
-  </authors>
-  <commentList>
-    <comment ref="F3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>admin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-1 神圣套</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="40">
   <si>
     <t>ID</t>
   </si>
@@ -234,42 +201,6 @@
   </si>
   <si>
     <t>幽灵之靴</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>品质</t>
-  </si>
-  <si>
-    <t>词条</t>
-  </si>
-  <si>
-    <t>套装</t>
-  </si>
-  <si>
-    <t>Quality</t>
-  </si>
-  <si>
-    <t>RuneId</t>
-  </si>
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>神圣怒斩</t>
-  </si>
-  <si>
-    <t>14,16,15</t>
-  </si>
-  <si>
-    <t>6,4,8</t>
-  </si>
-  <si>
-    <t>神圣噬魂</t>
   </si>
 </sst>
 </file>
@@ -282,7 +213,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -293,26 +224,13 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
+      <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -468,12 +386,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -803,137 +721,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -941,13 +859,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1270,742 +1182,742 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="9" style="5"/>
-    <col min="3" max="4" width="9.875" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="12.5" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13" style="5" customWidth="1"/>
-    <col min="9" max="9" width="10.125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="14.875" style="5" customWidth="1"/>
-    <col min="11" max="16371" width="9" style="5"/>
-    <col min="16372" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="6.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9" style="2"/>
+    <col min="3" max="4" width="9.875" style="1" customWidth="1"/>
+    <col min="5" max="6" width="12.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="14.875" style="2" customWidth="1"/>
+    <col min="11" max="16371" width="9" style="2"/>
+    <col min="16372" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-    </row>
-    <row r="2" s="4" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-    </row>
-    <row r="3" s="4" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6" t="s">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" s="4" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6" t="s">
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" s="4" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6" t="s">
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" s="4" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C6" s="4">
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="4">
         <v>3000001</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="1">
         <v>1</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="1">
         <v>1</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" s="4" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C7" s="4">
+      <c r="I6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C7" s="1">
         <v>2</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="4">
         <v>3000002</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="1">
         <v>2</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="1">
         <v>1</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" s="4" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C8" s="4">
+      <c r="I7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C8" s="1">
         <v>3</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="4">
         <v>3000003</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="1">
         <v>3</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="1">
         <v>1</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" s="4" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C9" s="4">
+      <c r="I8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C9" s="1">
         <v>4</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="4">
         <v>3000004</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="1">
         <v>4</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="1">
         <v>1</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" s="4" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C10" s="4">
+      <c r="I9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C10" s="1">
         <v>5</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="4">
         <v>3000005</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="1">
         <v>5</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="1">
         <v>1</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" s="4" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C11" s="4">
+      <c r="I10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C11" s="1">
         <v>6</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="4">
         <v>3000006</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="1">
         <v>6</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="1">
         <v>1</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="8" t="s">
+      <c r="I11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="3:10">
-      <c r="C12" s="4">
+      <c r="C12" s="1">
         <v>7</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="4">
         <v>3000007</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="1">
         <v>7</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="1">
         <v>1</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" s="8" t="s">
+      <c r="I12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="3:10">
-      <c r="C13" s="4">
+      <c r="C13" s="1">
         <v>8</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="4">
         <v>3000008</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="1">
         <v>8</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="1">
         <v>1</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" s="4" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C14" s="4">
+      <c r="I13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C14" s="1">
         <v>9</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="4">
         <v>3000009</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="1">
         <v>1</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="1">
         <v>2</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I14" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" s="4" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C15" s="4">
+      <c r="I14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C15" s="1">
         <v>10</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="4">
         <v>3000010</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="1">
         <v>2</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="1">
         <v>2</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I15" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" s="4" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C16" s="4">
+      <c r="I15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C16" s="1">
         <v>11</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="4">
         <v>3000011</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="1">
         <v>3</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="1">
         <v>2</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I16" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" s="4" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C17" s="4">
+      <c r="I16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C17" s="1">
         <v>12</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="4">
         <v>3000012</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="1">
         <v>4</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="1">
         <v>2</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I17" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" s="4" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C18" s="4">
+      <c r="I17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C18" s="1">
         <v>13</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="4">
         <v>3000013</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="1">
         <v>5</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="1">
         <v>2</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="H18" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I18" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" s="4" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C19" s="4">
-        <v>14</v>
-      </c>
-      <c r="D19" s="7">
+      <c r="I18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C19" s="1">
+        <v>14</v>
+      </c>
+      <c r="D19" s="4">
         <v>3000014</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="1">
         <v>6</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="1">
         <v>2</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="H19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I19" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J19" s="8" t="s">
+      <c r="I19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="3:10">
-      <c r="C20" s="4">
+      <c r="C20" s="1">
         <v>15</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="4">
         <v>3000015</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="1">
         <v>7</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="1">
         <v>2</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="H20" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I20" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J20" s="8" t="s">
+      <c r="I20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="3:10">
-      <c r="C21" s="4">
+      <c r="C21" s="1">
         <v>16</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="4">
         <v>3000016</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="1">
         <v>8</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="1">
         <v>2</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="H21" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I21" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" s="4" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C22" s="4">
+      <c r="I21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C22" s="1">
         <v>17</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="4">
         <v>3000017</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="1">
         <v>1</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="1">
         <v>3</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="H22" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I22" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" s="4" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C23" s="4">
+      <c r="I22" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C23" s="1">
         <v>18</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="4">
         <v>3000018</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="1">
         <v>2</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="1">
         <v>3</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="H23" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I23" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" s="4" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C24" s="4">
+      <c r="I23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C24" s="1">
         <v>19</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="4">
         <v>3000019</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="1">
         <v>3</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="1">
         <v>3</v>
       </c>
-      <c r="H24" s="8" t="s">
+      <c r="H24" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I24" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J24" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" s="4" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C25" s="4">
+      <c r="I24" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C25" s="1">
         <v>20</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="4">
         <v>3000020</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="1">
         <v>4</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="1">
         <v>3</v>
       </c>
-      <c r="H25" s="8" t="s">
+      <c r="H25" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I25" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" s="4" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C26" s="4">
+      <c r="I25" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C26" s="1">
         <v>21</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="4">
         <v>3000021</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="1">
         <v>5</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="1">
         <v>3</v>
       </c>
-      <c r="H26" s="8" t="s">
+      <c r="H26" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I26" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J26" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" s="4" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C27" s="4">
+      <c r="I26" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C27" s="1">
         <v>22</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="4">
         <v>3000022</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="1">
         <v>6</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="1">
         <v>3</v>
       </c>
-      <c r="H27" s="8" t="s">
+      <c r="H27" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I27" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J27" s="8" t="s">
+      <c r="I27" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="3:10">
-      <c r="C28" s="4">
+      <c r="C28" s="1">
         <v>23</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="4">
         <v>3000023</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="1">
         <v>7</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="1">
         <v>3</v>
       </c>
-      <c r="H28" s="8" t="s">
+      <c r="H28" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I28" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J28" s="8" t="s">
+      <c r="I28" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J28" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="3:10">
-      <c r="C29" s="4">
+      <c r="C29" s="1">
         <v>24</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="4">
         <v>3000024</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="1">
         <v>8</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="1">
         <v>3</v>
       </c>
-      <c r="H29" s="8" t="s">
+      <c r="H29" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I29" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J29" s="8" t="s">
+      <c r="I29" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J29" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2019,479 +1931,4 @@
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:XFD19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="6.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
-    <col min="4" max="5" width="12.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15.125" style="2" customWidth="1"/>
-    <col min="10" max="12" width="12.25" customWidth="1"/>
-    <col min="13" max="16373" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:9">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:9">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:12">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:12">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:12">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" ht="27" customHeight="1" spans="3:12">
-      <c r="C6">
-        <v>1000001</v>
-      </c>
-      <c r="D6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6">
-        <v>15</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6">
-        <v>5</v>
-      </c>
-      <c r="K6" s="1">
-        <v>14</v>
-      </c>
-      <c r="L6">
-        <v>10010</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" ht="27" customHeight="1" spans="3:12">
-      <c r="C7">
-        <v>1000002</v>
-      </c>
-      <c r="D7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7">
-        <v>15</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="J7">
-        <v>5</v>
-      </c>
-      <c r="K7">
-        <v>15</v>
-      </c>
-      <c r="L7">
-        <v>10024</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" ht="27" customHeight="1" spans="3:12">
-      <c r="C8">
-        <v>1000003</v>
-      </c>
-      <c r="D8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8">
-        <v>15</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="J8">
-        <v>5</v>
-      </c>
-      <c r="K8">
-        <v>16</v>
-      </c>
-      <c r="L8">
-        <v>10038</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" ht="27" customHeight="1" spans="3:12">
-      <c r="C9">
-        <v>1000004</v>
-      </c>
-      <c r="D9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9">
-        <v>16</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="J9">
-        <v>5</v>
-      </c>
-      <c r="K9" s="1">
-        <v>14</v>
-      </c>
-      <c r="L9">
-        <v>10010</v>
-      </c>
-    </row>
-    <row r="10" customFormat="1" ht="27" customHeight="1" spans="3:12">
-      <c r="C10">
-        <v>1000005</v>
-      </c>
-      <c r="D10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10">
-        <v>16</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="J10">
-        <v>5</v>
-      </c>
-      <c r="K10">
-        <v>15</v>
-      </c>
-      <c r="L10">
-        <v>10024</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" ht="27" customHeight="1" spans="3:12">
-      <c r="C11">
-        <v>1000006</v>
-      </c>
-      <c r="D11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11">
-        <v>16</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="J11">
-        <v>5</v>
-      </c>
-      <c r="K11">
-        <v>16</v>
-      </c>
-      <c r="L11">
-        <v>10038</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" ht="27" customHeight="1" spans="6:6">
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" customFormat="1" ht="27" customHeight="1" spans="6:6">
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" s="2" customFormat="1" spans="3:16384">
-      <c r="C14"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="J14"/>
-      <c r="K14"/>
-      <c r="L14"/>
-      <c r="XET14"/>
-      <c r="XEU14"/>
-      <c r="XEV14"/>
-      <c r="XEW14"/>
-      <c r="XEX14"/>
-      <c r="XEY14"/>
-      <c r="XEZ14"/>
-      <c r="XFA14"/>
-      <c r="XFB14"/>
-      <c r="XFC14"/>
-      <c r="XFD14"/>
-    </row>
-    <row r="15" s="2" customFormat="1" spans="3:16384">
-      <c r="C15"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15"/>
-      <c r="XET15"/>
-      <c r="XEU15"/>
-      <c r="XEV15"/>
-      <c r="XEW15"/>
-      <c r="XEX15"/>
-      <c r="XEY15"/>
-      <c r="XEZ15"/>
-      <c r="XFA15"/>
-      <c r="XFB15"/>
-      <c r="XFC15"/>
-      <c r="XFD15"/>
-    </row>
-    <row r="16" s="2" customFormat="1" spans="3:16384">
-      <c r="C16"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16"/>
-      <c r="G16" s="1"/>
-      <c r="J16"/>
-      <c r="K16"/>
-      <c r="L16"/>
-      <c r="XET16"/>
-      <c r="XEU16"/>
-      <c r="XEV16"/>
-      <c r="XEW16"/>
-      <c r="XEX16"/>
-      <c r="XEY16"/>
-      <c r="XEZ16"/>
-      <c r="XFA16"/>
-      <c r="XFB16"/>
-      <c r="XFC16"/>
-      <c r="XFD16"/>
-    </row>
-    <row r="17" s="2" customFormat="1" spans="3:16384">
-      <c r="C17"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17"/>
-      <c r="G17" s="1"/>
-      <c r="J17"/>
-      <c r="K17"/>
-      <c r="L17"/>
-      <c r="XET17"/>
-      <c r="XEU17"/>
-      <c r="XEV17"/>
-      <c r="XEW17"/>
-      <c r="XEX17"/>
-      <c r="XEY17"/>
-      <c r="XEZ17"/>
-      <c r="XFA17"/>
-      <c r="XFB17"/>
-      <c r="XFC17"/>
-      <c r="XFD17"/>
-    </row>
-    <row r="18" s="2" customFormat="1" spans="3:16384">
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18"/>
-      <c r="G18" s="1"/>
-      <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18"/>
-      <c r="XET18"/>
-      <c r="XEU18"/>
-      <c r="XEV18"/>
-      <c r="XEW18"/>
-      <c r="XEX18"/>
-      <c r="XEY18"/>
-      <c r="XEZ18"/>
-      <c r="XFA18"/>
-      <c r="XFB18"/>
-      <c r="XFC18"/>
-      <c r="XFD18"/>
-    </row>
-    <row r="19" s="2" customFormat="1" spans="3:16384">
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19"/>
-      <c r="G19" s="1"/>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
-      <c r="XET19"/>
-      <c r="XEU19"/>
-      <c r="XEV19"/>
-      <c r="XEW19"/>
-      <c r="XEX19"/>
-      <c r="XEY19"/>
-      <c r="XEZ19"/>
-      <c r="XFA19"/>
-      <c r="XFB19"/>
-      <c r="XFC19"/>
-      <c r="XFD19"/>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 F3 G3 H3 I3 D4 E4 F4 G4 H4 I4 D5 E5 F5 G5 H5 I5 C3:C5" errorStyle="warning">
-      <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/Excel/FashionConfig.xlsx
+++ b/Excel/FashionConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="42">
   <si>
     <t>ID</t>
   </si>
@@ -201,6 +201,12 @@
   </si>
   <si>
     <t>幽灵之靴</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>圣战之刃</t>
   </si>
 </sst>
 </file>
@@ -1179,10 +1185,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30:B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -1921,6 +1927,702 @@
         <v>14</v>
       </c>
     </row>
+    <row r="30" customHeight="1" spans="2:10">
+      <c r="B30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="1">
+        <v>25</v>
+      </c>
+      <c r="D30" s="4">
+        <v>3000025</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="2:10">
+      <c r="B31" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="1">
+        <v>26</v>
+      </c>
+      <c r="D31" s="4">
+        <v>3000026</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="1">
+        <v>2</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="2:10">
+      <c r="B32" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="1">
+        <v>27</v>
+      </c>
+      <c r="D32" s="4">
+        <v>3000027</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="1">
+        <v>3</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="2:10">
+      <c r="B33" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="1">
+        <v>28</v>
+      </c>
+      <c r="D33" s="4">
+        <v>3000028</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="1">
+        <v>4</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="2:10">
+      <c r="B34" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="1">
+        <v>29</v>
+      </c>
+      <c r="D34" s="4">
+        <v>3000029</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" s="1">
+        <v>5</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="2:10">
+      <c r="B35" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="1">
+        <v>30</v>
+      </c>
+      <c r="D35" s="4">
+        <v>3000030</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" s="1">
+        <v>6</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="2:10">
+      <c r="B36" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="1">
+        <v>31</v>
+      </c>
+      <c r="D36" s="4">
+        <v>3000031</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" s="1">
+        <v>7</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="2:10">
+      <c r="B37" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="1">
+        <v>32</v>
+      </c>
+      <c r="D37" s="4">
+        <v>3000032</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F37" s="1">
+        <v>8</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="2:10">
+      <c r="B38" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="1">
+        <v>33</v>
+      </c>
+      <c r="D38" s="4">
+        <v>3000033</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1">
+        <v>2</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="2:10">
+      <c r="B39" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="1">
+        <v>34</v>
+      </c>
+      <c r="D39" s="4">
+        <v>3000034</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39" s="1">
+        <v>2</v>
+      </c>
+      <c r="G39" s="1">
+        <v>2</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="2:10">
+      <c r="B40" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="1">
+        <v>35</v>
+      </c>
+      <c r="D40" s="4">
+        <v>3000035</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" s="1">
+        <v>3</v>
+      </c>
+      <c r="G40" s="1">
+        <v>2</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="2:10">
+      <c r="B41" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="1">
+        <v>36</v>
+      </c>
+      <c r="D41" s="4">
+        <v>3000036</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F41" s="1">
+        <v>4</v>
+      </c>
+      <c r="G41" s="1">
+        <v>2</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="2:10">
+      <c r="B42" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="1">
+        <v>37</v>
+      </c>
+      <c r="D42" s="4">
+        <v>3000037</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F42" s="1">
+        <v>5</v>
+      </c>
+      <c r="G42" s="1">
+        <v>2</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="2:10">
+      <c r="B43" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="1">
+        <v>38</v>
+      </c>
+      <c r="D43" s="4">
+        <v>3000038</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F43" s="1">
+        <v>6</v>
+      </c>
+      <c r="G43" s="1">
+        <v>2</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="2:10">
+      <c r="B44" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" s="1">
+        <v>39</v>
+      </c>
+      <c r="D44" s="4">
+        <v>3000039</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F44" s="1">
+        <v>7</v>
+      </c>
+      <c r="G44" s="1">
+        <v>2</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="2:10">
+      <c r="B45" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" s="1">
+        <v>40</v>
+      </c>
+      <c r="D45" s="4">
+        <v>3000040</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F45" s="1">
+        <v>8</v>
+      </c>
+      <c r="G45" s="1">
+        <v>2</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="2:10">
+      <c r="B46" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" s="1">
+        <v>41</v>
+      </c>
+      <c r="D46" s="4">
+        <v>3000041</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F46" s="1">
+        <v>1</v>
+      </c>
+      <c r="G46" s="1">
+        <v>3</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="2:10">
+      <c r="B47" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" s="1">
+        <v>42</v>
+      </c>
+      <c r="D47" s="4">
+        <v>3000042</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F47" s="1">
+        <v>2</v>
+      </c>
+      <c r="G47" s="1">
+        <v>3</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="2:10">
+      <c r="B48" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48" s="1">
+        <v>43</v>
+      </c>
+      <c r="D48" s="4">
+        <v>3000043</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F48" s="1">
+        <v>3</v>
+      </c>
+      <c r="G48" s="1">
+        <v>3</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="2:10">
+      <c r="B49" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="1">
+        <v>44</v>
+      </c>
+      <c r="D49" s="4">
+        <v>3000044</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F49" s="1">
+        <v>4</v>
+      </c>
+      <c r="G49" s="1">
+        <v>3</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="2:10">
+      <c r="B50" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C50" s="1">
+        <v>45</v>
+      </c>
+      <c r="D50" s="4">
+        <v>3000045</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F50" s="1">
+        <v>5</v>
+      </c>
+      <c r="G50" s="1">
+        <v>3</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="2:10">
+      <c r="B51" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51" s="1">
+        <v>46</v>
+      </c>
+      <c r="D51" s="4">
+        <v>3000046</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F51" s="1">
+        <v>6</v>
+      </c>
+      <c r="G51" s="1">
+        <v>3</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="2:10">
+      <c r="B52" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C52" s="1">
+        <v>47</v>
+      </c>
+      <c r="D52" s="4">
+        <v>3000047</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F52" s="1">
+        <v>7</v>
+      </c>
+      <c r="G52" s="1">
+        <v>3</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J52" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="2:10">
+      <c r="B53" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53" s="1">
+        <v>48</v>
+      </c>
+      <c r="D53" s="4">
+        <v>3000048</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F53" s="1">
+        <v>8</v>
+      </c>
+      <c r="G53" s="1">
+        <v>3</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 F3 G3 H3 I3 J3 D4 E4 F4 G4 H4 I4 J4 D5 E5 F5 G5 H5 I5 J5 C3:C5" errorStyle="warning">

--- a/Excel/FashionConfig.xlsx
+++ b/Excel/FashionConfig.xlsx
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="65">
   <si>
     <t>ID</t>
   </si>
@@ -203,10 +203,79 @@
     <t>幽灵之靴</t>
   </si>
   <si>
-    <t>#</t>
-  </si>
-  <si>
     <t>圣战之刃</t>
+  </si>
+  <si>
+    <t>10,10,10,10</t>
+  </si>
+  <si>
+    <t>圣战之甲</t>
+  </si>
+  <si>
+    <t>圣战之头</t>
+  </si>
+  <si>
+    <t>圣战之链</t>
+  </si>
+  <si>
+    <t>圣战之镯</t>
+  </si>
+  <si>
+    <t>圣战之戒</t>
+  </si>
+  <si>
+    <t>圣战之带</t>
+  </si>
+  <si>
+    <t>圣战之靴</t>
+  </si>
+  <si>
+    <t>法神之杖</t>
+  </si>
+  <si>
+    <t>法神之衣</t>
+  </si>
+  <si>
+    <t>法神之头</t>
+  </si>
+  <si>
+    <t>法神之链</t>
+  </si>
+  <si>
+    <t>法神之镯</t>
+  </si>
+  <si>
+    <t>法神之戒</t>
+  </si>
+  <si>
+    <t>法神之带</t>
+  </si>
+  <si>
+    <t>法神之靴</t>
+  </si>
+  <si>
+    <t>天尊之剑</t>
+  </si>
+  <si>
+    <t>天尊之袍</t>
+  </si>
+  <si>
+    <t>天尊之头</t>
+  </si>
+  <si>
+    <t>天尊之链</t>
+  </si>
+  <si>
+    <t>天尊之镯</t>
+  </si>
+  <si>
+    <t>天尊之戒</t>
+  </si>
+  <si>
+    <t>天尊之带</t>
+  </si>
+  <si>
+    <t>天尊之靴</t>
   </si>
 </sst>
 </file>
@@ -1188,7 +1257,7 @@
   <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30:B53"/>
+      <selection activeCell="L51" sqref="L51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -1927,10 +1996,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" customHeight="1" spans="2:10">
-      <c r="B30" s="2" t="s">
-        <v>40</v>
-      </c>
+    <row r="30" customHeight="1" spans="3:10">
       <c r="C30" s="1">
         <v>25</v>
       </c>
@@ -1938,7 +2004,7 @@
         <v>3000025</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F30" s="1">
         <v>1</v>
@@ -1950,16 +2016,13 @@
         <v>13</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" customHeight="1" spans="2:10">
-      <c r="B31" s="2" t="s">
-        <v>40</v>
-      </c>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="3:10">
       <c r="C31" s="1">
         <v>26</v>
       </c>
@@ -1967,7 +2030,7 @@
         <v>3000026</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="F31" s="1">
         <v>2</v>
@@ -1979,16 +2042,13 @@
         <v>13</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" customHeight="1" spans="2:10">
-      <c r="B32" s="2" t="s">
-        <v>40</v>
-      </c>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="3:10">
       <c r="C32" s="1">
         <v>27</v>
       </c>
@@ -1996,7 +2056,7 @@
         <v>3000027</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="F32" s="1">
         <v>3</v>
@@ -2008,16 +2068,13 @@
         <v>13</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" customHeight="1" spans="2:10">
-      <c r="B33" s="2" t="s">
-        <v>40</v>
-      </c>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="3:10">
       <c r="C33" s="1">
         <v>28</v>
       </c>
@@ -2025,7 +2082,7 @@
         <v>3000028</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="F33" s="1">
         <v>4</v>
@@ -2037,16 +2094,13 @@
         <v>13</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" customHeight="1" spans="2:10">
-      <c r="B34" s="2" t="s">
-        <v>40</v>
-      </c>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="3:10">
       <c r="C34" s="1">
         <v>29</v>
       </c>
@@ -2054,7 +2108,7 @@
         <v>3000029</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="F34" s="1">
         <v>5</v>
@@ -2066,16 +2120,13 @@
         <v>13</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" customHeight="1" spans="2:10">
-      <c r="B35" s="2" t="s">
-        <v>40</v>
-      </c>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="3:10">
       <c r="C35" s="1">
         <v>30</v>
       </c>
@@ -2083,7 +2134,7 @@
         <v>3000030</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="F35" s="1">
         <v>6</v>
@@ -2095,16 +2146,13 @@
         <v>13</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" customHeight="1" spans="2:10">
-      <c r="B36" s="2" t="s">
-        <v>40</v>
-      </c>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="3:10">
       <c r="C36" s="1">
         <v>31</v>
       </c>
@@ -2112,7 +2160,7 @@
         <v>3000031</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="F36" s="1">
         <v>7</v>
@@ -2124,16 +2172,13 @@
         <v>13</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" customHeight="1" spans="2:10">
-      <c r="B37" s="2" t="s">
-        <v>40</v>
-      </c>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="3:10">
       <c r="C37" s="1">
         <v>32</v>
       </c>
@@ -2141,7 +2186,7 @@
         <v>3000032</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="F37" s="1">
         <v>8</v>
@@ -2153,16 +2198,13 @@
         <v>13</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" customHeight="1" spans="2:10">
-      <c r="B38" s="2" t="s">
-        <v>40</v>
-      </c>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="3:10">
       <c r="C38" s="1">
         <v>33</v>
       </c>
@@ -2170,7 +2212,7 @@
         <v>3000033</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="F38" s="1">
         <v>1</v>
@@ -2182,16 +2224,13 @@
         <v>23</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" customHeight="1" spans="2:10">
-      <c r="B39" s="2" t="s">
-        <v>40</v>
-      </c>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="3:10">
       <c r="C39" s="1">
         <v>34</v>
       </c>
@@ -2199,7 +2238,7 @@
         <v>3000034</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="F39" s="1">
         <v>2</v>
@@ -2211,16 +2250,13 @@
         <v>23</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" customHeight="1" spans="2:10">
-      <c r="B40" s="2" t="s">
-        <v>40</v>
-      </c>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="3:10">
       <c r="C40" s="1">
         <v>35</v>
       </c>
@@ -2228,7 +2264,7 @@
         <v>3000035</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="F40" s="1">
         <v>3</v>
@@ -2240,16 +2276,13 @@
         <v>23</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" customHeight="1" spans="2:10">
-      <c r="B41" s="2" t="s">
-        <v>40</v>
-      </c>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="3:10">
       <c r="C41" s="1">
         <v>36</v>
       </c>
@@ -2257,7 +2290,7 @@
         <v>3000036</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="F41" s="1">
         <v>4</v>
@@ -2269,16 +2302,13 @@
         <v>23</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" customHeight="1" spans="2:10">
-      <c r="B42" s="2" t="s">
-        <v>40</v>
-      </c>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="3:10">
       <c r="C42" s="1">
         <v>37</v>
       </c>
@@ -2286,7 +2316,7 @@
         <v>3000037</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="F42" s="1">
         <v>5</v>
@@ -2298,16 +2328,13 @@
         <v>23</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43" customHeight="1" spans="2:10">
-      <c r="B43" s="2" t="s">
-        <v>40</v>
-      </c>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="3:10">
       <c r="C43" s="1">
         <v>38</v>
       </c>
@@ -2315,7 +2342,7 @@
         <v>3000038</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="F43" s="1">
         <v>6</v>
@@ -2327,16 +2354,13 @@
         <v>23</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" customHeight="1" spans="2:10">
-      <c r="B44" s="2" t="s">
-        <v>40</v>
-      </c>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="3:10">
       <c r="C44" s="1">
         <v>39</v>
       </c>
@@ -2344,7 +2368,7 @@
         <v>3000039</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="F44" s="1">
         <v>7</v>
@@ -2356,16 +2380,13 @@
         <v>23</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" customHeight="1" spans="2:10">
-      <c r="B45" s="2" t="s">
-        <v>40</v>
-      </c>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="3:10">
       <c r="C45" s="1">
         <v>40</v>
       </c>
@@ -2373,7 +2394,7 @@
         <v>3000040</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="F45" s="1">
         <v>8</v>
@@ -2385,16 +2406,13 @@
         <v>23</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" customHeight="1" spans="2:10">
-      <c r="B46" s="2" t="s">
-        <v>40</v>
-      </c>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="3:10">
       <c r="C46" s="1">
         <v>41</v>
       </c>
@@ -2402,7 +2420,7 @@
         <v>3000041</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="F46" s="1">
         <v>1</v>
@@ -2414,16 +2432,13 @@
         <v>32</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" customHeight="1" spans="2:10">
-      <c r="B47" s="2" t="s">
-        <v>40</v>
-      </c>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="3:10">
       <c r="C47" s="1">
         <v>42</v>
       </c>
@@ -2431,7 +2446,7 @@
         <v>3000042</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="F47" s="1">
         <v>2</v>
@@ -2443,16 +2458,13 @@
         <v>32</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" customHeight="1" spans="2:10">
-      <c r="B48" s="2" t="s">
-        <v>40</v>
-      </c>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="3:10">
       <c r="C48" s="1">
         <v>43</v>
       </c>
@@ -2460,7 +2472,7 @@
         <v>3000043</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="F48" s="1">
         <v>3</v>
@@ -2472,16 +2484,13 @@
         <v>32</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" customHeight="1" spans="2:10">
-      <c r="B49" s="2" t="s">
-        <v>40</v>
-      </c>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="3:10">
       <c r="C49" s="1">
         <v>44</v>
       </c>
@@ -2489,7 +2498,7 @@
         <v>3000044</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="F49" s="1">
         <v>4</v>
@@ -2501,16 +2510,13 @@
         <v>32</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50" customHeight="1" spans="2:10">
-      <c r="B50" s="2" t="s">
-        <v>40</v>
-      </c>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="3:10">
       <c r="C50" s="1">
         <v>45</v>
       </c>
@@ -2518,7 +2524,7 @@
         <v>3000045</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="F50" s="1">
         <v>5</v>
@@ -2530,16 +2536,13 @@
         <v>32</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="J50" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="51" customHeight="1" spans="2:10">
-      <c r="B51" s="2" t="s">
-        <v>40</v>
-      </c>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="3:10">
       <c r="C51" s="1">
         <v>46</v>
       </c>
@@ -2547,7 +2550,7 @@
         <v>3000046</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="F51" s="1">
         <v>6</v>
@@ -2559,16 +2562,13 @@
         <v>32</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="52" customHeight="1" spans="2:10">
-      <c r="B52" s="2" t="s">
-        <v>40</v>
-      </c>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="3:10">
       <c r="C52" s="1">
         <v>47</v>
       </c>
@@ -2576,7 +2576,7 @@
         <v>3000047</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="F52" s="1">
         <v>7</v>
@@ -2588,16 +2588,13 @@
         <v>32</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="53" customHeight="1" spans="2:10">
-      <c r="B53" s="2" t="s">
-        <v>40</v>
-      </c>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="3:10">
       <c r="C53" s="1">
         <v>48</v>
       </c>
@@ -2605,7 +2602,7 @@
         <v>3000048</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="F53" s="1">
         <v>8</v>
@@ -2617,10 +2614,10 @@
         <v>32</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/FashionConfig.xlsx
+++ b/Excel/FashionConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -1256,8 +1256,8 @@
   <sheetPr/>
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="L51" sqref="L51"/>
+    <sheetView tabSelected="1" topLeftCell="B27" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -2010,7 +2010,7 @@
         <v>1</v>
       </c>
       <c r="G30" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>13</v>
@@ -2036,7 +2036,7 @@
         <v>2</v>
       </c>
       <c r="G31" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>13</v>
@@ -2062,7 +2062,7 @@
         <v>3</v>
       </c>
       <c r="G32" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>13</v>
@@ -2088,7 +2088,7 @@
         <v>4</v>
       </c>
       <c r="G33" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>13</v>
@@ -2114,7 +2114,7 @@
         <v>5</v>
       </c>
       <c r="G34" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H34" s="5" t="s">
         <v>13</v>
@@ -2140,7 +2140,7 @@
         <v>6</v>
       </c>
       <c r="G35" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>13</v>
@@ -2166,7 +2166,7 @@
         <v>7</v>
       </c>
       <c r="G36" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>13</v>
@@ -2192,7 +2192,7 @@
         <v>8</v>
       </c>
       <c r="G37" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>13</v>
@@ -2218,7 +2218,7 @@
         <v>1</v>
       </c>
       <c r="G38" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>23</v>
@@ -2244,7 +2244,7 @@
         <v>2</v>
       </c>
       <c r="G39" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>23</v>
@@ -2270,7 +2270,7 @@
         <v>3</v>
       </c>
       <c r="G40" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H40" s="5" t="s">
         <v>23</v>
@@ -2296,7 +2296,7 @@
         <v>4</v>
       </c>
       <c r="G41" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H41" s="5" t="s">
         <v>23</v>
@@ -2322,7 +2322,7 @@
         <v>5</v>
       </c>
       <c r="G42" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H42" s="5" t="s">
         <v>23</v>
@@ -2348,7 +2348,7 @@
         <v>6</v>
       </c>
       <c r="G43" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H43" s="5" t="s">
         <v>23</v>
@@ -2374,7 +2374,7 @@
         <v>7</v>
       </c>
       <c r="G44" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H44" s="5" t="s">
         <v>23</v>
@@ -2400,7 +2400,7 @@
         <v>8</v>
       </c>
       <c r="G45" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H45" s="5" t="s">
         <v>23</v>
@@ -2426,7 +2426,7 @@
         <v>1</v>
       </c>
       <c r="G46" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H46" s="5" t="s">
         <v>32</v>
@@ -2452,7 +2452,7 @@
         <v>2</v>
       </c>
       <c r="G47" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H47" s="5" t="s">
         <v>32</v>
@@ -2478,7 +2478,7 @@
         <v>3</v>
       </c>
       <c r="G48" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H48" s="5" t="s">
         <v>32</v>
@@ -2504,7 +2504,7 @@
         <v>4</v>
       </c>
       <c r="G49" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H49" s="5" t="s">
         <v>32</v>
@@ -2530,7 +2530,7 @@
         <v>5</v>
       </c>
       <c r="G50" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H50" s="5" t="s">
         <v>32</v>
@@ -2556,7 +2556,7 @@
         <v>6</v>
       </c>
       <c r="G51" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H51" s="5" t="s">
         <v>32</v>
@@ -2582,7 +2582,7 @@
         <v>7</v>
       </c>
       <c r="G52" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H52" s="5" t="s">
         <v>32</v>
@@ -2608,7 +2608,7 @@
         <v>8</v>
       </c>
       <c r="G53" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H53" s="5" t="s">
         <v>32</v>
